--- a/biology/Zoologie/Hemidactylus_mindiae/Hemidactylus_mindiae.xlsx
+++ b/biology/Zoologie/Hemidactylus_mindiae/Hemidactylus_mindiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus mindiae est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus mindiae est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sinaï en Égypte et en Jordanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sinaï en Égypte et en Jordanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko terrestre des zones rocheuses des zones rurales et urbaines.
 Il est menacée par la disparition de son habitat naturel.
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'ornithologiste Mindy Baha El Din (1958-)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'ornithologiste Mindy Baha El Din (1958-).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Baha El Din, 2005 : An overview of Egyptian species of Hemidactylus (Gekkonidae), with the description of a new species from the high mountains of South Sinai. Zoology in the Middle East, vol. 34, p. 11-26.</t>
         </is>
